--- a/MSBA Exit Exam_ManagementScience.xlsx
+++ b/MSBA Exit Exam_ManagementScience.xlsx
@@ -1,31 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\courtneypaulson\Dropbox\ANLY 6900\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikemusas/Documents/DataProjects/msba_capstone/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64C5C1-2937-DC4A-94C1-307A434F5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="4540" yWindow="660" windowWidth="31720" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Problem 2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$B$17:$D$17</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$12:$D$12</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1'!$B$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$16:$B$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$D$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$E$9:$E$12</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1'!$E$25</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$E$25</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1'!$D$18</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$C$16:$C$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 1'!$D$19</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 1'!$F$9:$F$12</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Question 2</t>
   </si>
@@ -79,12 +158,54 @@
   </si>
   <si>
     <t>Intnl</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Total Inputs Used</t>
+  </si>
+  <si>
+    <t>Input Limits</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>Product 3</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Variable Cost</t>
+  </si>
+  <si>
+    <t>Limits</t>
+  </si>
+  <si>
+    <t>fixed costs decisions</t>
+  </si>
+  <si>
+    <t>Apply Constraints for Special Conditio</t>
+  </si>
+  <si>
+    <t>OBJ</t>
+  </si>
+  <si>
+    <t>Binary If Product is produced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
@@ -132,12 +253,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -172,9 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -201,16 +328,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,16 +367,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>397564</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>831480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>165651</xdr:rowOff>
+      <xdr:rowOff>260901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>621657</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -256,8 +391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4721914" y="403776"/>
-          <a:ext cx="4508226" cy="4130124"/>
+          <a:off x="7181480" y="493734"/>
+          <a:ext cx="5134760" cy="4034874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,7 +654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1098,47 +1239,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1180,19 +1322,25 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1205,9 +1353,16 @@
       <c r="D9" s="8">
         <v>10</v>
       </c>
+      <c r="E9" s="2">
+        <f>B9*B$17+C9*C$17+D9*D$17</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3000</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1220,9 +1375,16 @@
       <c r="D10" s="8">
         <v>2</v>
       </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10" si="0">B10*B$17+C10*C$17+D10*D$17</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3000</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1235,9 +1397,16 @@
       <c r="D11" s="8">
         <v>9</v>
       </c>
+      <c r="E11" s="2">
+        <f>B11*B$17+C11*C$17+D11*D$17</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3000</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1250,9 +1419,139 @@
       <c r="D12" s="8">
         <v>2</v>
       </c>
+      <c r="E12" s="2">
+        <f>B12*B$17+C12*C$17+D12*D$17</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3000</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="23">
+        <f>IF(B17&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" ref="C18:D18" si="1">IF(C17&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23">
+        <f>250*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f>IF(B17&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="2">IF(C17&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="19">
+        <f>B17*B4 - B6*B17 - B5*B21</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C17*C4 - C6*C17 - C5*C21</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <f>D17*D4 - D6*D17 - D5*D21</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <f>B25+C25+D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1261,27 +1560,293 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA2323A-EB7B-9940-981E-5AD8B3167C3E}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>IF(B12&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>IF(C12&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>IF(D12&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f>B$12*B5 + C$12*C5 + D$12*D5</f>
+        <v>3000</v>
+      </c>
+      <c r="C16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B19" si="0">B$12*B6 + C$12*C6 + D$12*D6</f>
+        <v>1500</v>
+      </c>
+      <c r="C17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f>B$12*B7 + C$12*C7 + D$12*D7</f>
+        <v>3000</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <f>IF(B12&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="1">IF(C12&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <f>(B12*B2 - B12*B3- B21*B4)</f>
+        <v>78500</v>
+      </c>
+      <c r="C25">
+        <f>(C12*C2 - C12*C3- C21*C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>(D12*D2 - D12*D3- D21*D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <f>SUM(B25:D25)</f>
+        <v>78500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>IF(D12&gt;0, IF(D12&gt;=250, 1, 0), 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>IF(B12&gt;0, IF(D12&gt;0, 1, 0), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1856,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -1311,148 +1876,148 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
       <c r="B12">
@@ -1471,8 +2036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1491,8 +2056,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1511,8 +2076,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1531,8 +2096,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1551,8 +2116,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1571,8 +2136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1591,8 +2156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1611,8 +2176,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1631,8 +2196,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1651,8 +2216,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>18</v>
       </c>
       <c r="B22">
@@ -1671,8 +2236,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>19</v>
       </c>
       <c r="B23">
@@ -1691,8 +2256,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
         <v>20</v>
       </c>
       <c r="B24">
@@ -1711,8 +2276,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
         <v>21</v>
       </c>
       <c r="B25">
@@ -1731,8 +2296,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>22</v>
       </c>
       <c r="B26">
@@ -1751,8 +2316,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>23</v>
       </c>
       <c r="B27">
@@ -1771,8 +2336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>24</v>
       </c>
       <c r="B28">
@@ -1791,8 +2356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>25</v>
       </c>
       <c r="B29">
@@ -1811,8 +2376,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
         <v>26</v>
       </c>
       <c r="B30">
@@ -1831,8 +2396,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
         <v>27</v>
       </c>
       <c r="B31">
@@ -1851,8 +2416,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
         <v>28</v>
       </c>
       <c r="B32">
@@ -1871,8 +2436,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
         <v>29</v>
       </c>
       <c r="B33">
@@ -1891,8 +2456,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
         <v>30</v>
       </c>
       <c r="B34">
@@ -1911,8 +2476,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
         <v>31</v>
       </c>
       <c r="B35">
@@ -1931,8 +2496,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
         <v>32</v>
       </c>
       <c r="B36">
@@ -1951,8 +2516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
         <v>33</v>
       </c>
       <c r="B37">

--- a/MSBA Exit Exam_ManagementScience.xlsx
+++ b/MSBA Exit Exam_ManagementScience.xlsx
@@ -1,87 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikemusas/Documents/DataProjects/msba_capstone/Exam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\msba_exit_yelp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64C5C1-2937-DC4A-94C1-307A434F5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A0DCA8-DA17-4FE5-AFC3-39198283A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="660" windowWidth="31720" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Problem 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$B$17:$D$17</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$12:$D$12</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$B$17:$D$17,'Problem 1'!$B$18:$D$18</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1'!$B$18</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$16:$B$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$D$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$E$9:$E$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1'!$B$17:$D$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$B$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$B$18:$D$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 1'!$D$17</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 1'!$E$9:$E$12</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1'!$E$25</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$E$25</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1'!$D$18</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$C$16:$C$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 1'!$D$19</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 1'!$F$9:$F$12</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1'!$B$20:$D$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 1'!$D$18</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 1'!$D$21</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Problem 1'!$F$9:$F$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Question 2</t>
   </si>
@@ -167,36 +145,6 @@
   </si>
   <si>
     <t>Input Limits</t>
-  </si>
-  <si>
-    <t>Fixed Cost</t>
-  </si>
-  <si>
-    <t>Product 1</t>
-  </si>
-  <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>Product 3</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Variable Cost</t>
-  </si>
-  <si>
-    <t>Limits</t>
-  </si>
-  <si>
-    <t>fixed costs decisions</t>
-  </si>
-  <si>
-    <t>Apply Constraints for Special Conditio</t>
-  </si>
-  <si>
-    <t>OBJ</t>
   </si>
   <si>
     <t>Binary If Product is produced</t>
@@ -299,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,18 +282,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,34 +1186,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -1280,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1294,7 +1238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,12 +1266,12 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1355,14 +1299,14 @@
       </c>
       <c r="E9" s="2">
         <f>B9*B$17+C9*C$17+D9*D$17</f>
-        <v>0</v>
+        <v>2999.9999999999513</v>
       </c>
       <c r="F9" s="2">
         <v>3000</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1377,14 +1321,14 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10" si="0">B10*B$17+C10*C$17+D10*D$17</f>
-        <v>0</v>
+        <v>1499.9999999998859</v>
       </c>
       <c r="F10" s="2">
         <v>3000</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1399,14 +1343,14 @@
       </c>
       <c r="E11" s="2">
         <f>B11*B$17+C11*C$17+D11*D$17</f>
-        <v>0</v>
+        <v>2583.333333333303</v>
       </c>
       <c r="F11" s="2">
         <v>3000</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1421,22 +1365,22 @@
       </c>
       <c r="E12" s="2">
         <f>B12*B$17+C12*C$17+D12*D$17</f>
-        <v>0</v>
+        <v>1833.3333333331807</v>
       </c>
       <c r="F12" s="2">
         <v>3000</v>
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="15">
         <v>1</v>
       </c>
@@ -1447,106 +1391,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21">
-        <v>0</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>166.66666666664736</v>
+      </c>
+      <c r="D17" s="18">
+        <v>250.00000000000091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="23">
-        <f>IF(B17&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" ref="C18:D18" si="1">IF(C17&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20">
+        <f>3000*B18</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>3000*C18</f>
+        <v>3000</v>
+      </c>
+      <c r="D20">
+        <f>3000*D18</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21">
         <f>250*D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <f>IF(B17&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:D21" si="2">IF(C17&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="19">
-        <f>B17*B4 - B6*B17 - B5*B21</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="19">
-        <f>C17*C4 - C6*C17 - C5*C21</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
-        <f>D17*D4 - D6*D17 - D5*D21</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="B25" s="8">
+        <f>B17*B4 - B6*B17 - B5*B18</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <f>C17*C4 - C6*C17 - C5*C18</f>
+        <v>366.66666666656056</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ref="C25:D25" si="1">D17*D4 - D6*D17 - D5*D18</f>
+        <v>1325.0000000000059</v>
+      </c>
+      <c r="E25" s="19">
         <f>B25+C25+D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1691.6666666665665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1560,272 +1491,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA2323A-EB7B-9940-981E-5AD8B3167C3E}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>4000</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>IF(B12&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>IF(C12&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>IF(D12&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <f>B$12*B5 + C$12*C5 + D$12*D5</f>
-        <v>3000</v>
-      </c>
-      <c r="C16">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:B19" si="0">B$12*B6 + C$12*C6 + D$12*D6</f>
-        <v>1500</v>
-      </c>
-      <c r="C17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <f>B$12*B7 + C$12*C7 + D$12*D7</f>
-        <v>3000</v>
-      </c>
-      <c r="C18">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="C19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <f>IF(B12&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:D21" si="1">IF(C12&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <f>(B12*B2 - B12*B3- B21*B4)</f>
-        <v>78500</v>
-      </c>
-      <c r="C25">
-        <f>(C12*C2 - C12*C3- C21*C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f>(D12*D2 - D12*D3- D21*D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <f>SUM(B25:D25)</f>
-        <v>78500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f>IF(D12&gt;0, IF(D12&gt;=250, 1, 0), 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f>IF(B12&gt;0, IF(D12&gt;0, 1, 0), 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -1833,20 +1498,20 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="6" width="8.77734375" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1521,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +1541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1896,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1916,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1936,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1956,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1976,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1996,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2016,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -2036,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2056,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2076,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -2096,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -2116,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -2136,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -2156,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -2176,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -2196,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -2216,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -2236,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>19</v>
       </c>
@@ -2256,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>20</v>
       </c>
@@ -2276,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>21</v>
       </c>
@@ -2296,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>22</v>
       </c>
@@ -2316,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>23</v>
       </c>
@@ -2336,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>24</v>
       </c>
@@ -2356,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>25</v>
       </c>
@@ -2376,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>26</v>
       </c>
@@ -2396,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>27</v>
       </c>
@@ -2416,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>28</v>
       </c>
@@ -2436,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>29</v>
       </c>
@@ -2456,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>30</v>
       </c>
@@ -2476,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>31</v>
       </c>
@@ -2496,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>32</v>
       </c>
@@ -2516,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>33</v>
       </c>

--- a/MSBA Exit Exam_ManagementScience.xlsx
+++ b/MSBA Exit Exam_ManagementScience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\msba_exit_yelp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A0DCA8-DA17-4FE5-AFC3-39198283A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC994116-D44B-49DC-9E5A-2E0E20A4F2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -18,48 +18,87 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$B$17:$D$17,'Problem 1'!$B$18:$D$18</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 2'!$B$42:$H$74</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2000</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1'!$B$17:$D$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 2'!$B$42:$H$74</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$B$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 2'!$B$75:$H$75</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$B$18:$D$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 2'!$B$75:$H$75</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 1'!$D$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem 2'!$I$42:$I$74</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 1'!$E$9:$E$12</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1'!$E$25</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 2'!$B$89</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1'!$B$20:$D$20</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 1'!$D$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Problem 2'!$B$77:$H$77</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Problem 2'!$B$76:$H$76</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 1'!$D$21</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Problem 1'!$F$9:$F$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">1000</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Question 2</t>
   </si>
@@ -149,6 +188,33 @@
   <si>
     <t>Binary If Product is produced</t>
   </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team 5</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Total Penalty</t>
+  </si>
+  <si>
+    <t>MAX Penalty</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +225,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +266,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,6 +368,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +945,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    5.  Penalty = $2</a:t>
+            <a:t>    5.  Penalty = $2	</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -1186,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1463,7 +1542,7 @@
         <v>366.66666666656056</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" ref="C25:D25" si="1">D17*D4 - D6*D17 - D5*D18</f>
+        <f t="shared" ref="D25" si="1">D17*D4 - D6*D17 - D5*D18</f>
         <v>1325.0000000000059</v>
       </c>
       <c r="E25" s="19">
@@ -1492,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1582,7 @@
     <col min="2" max="2" width="8.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2101,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>29</v>
       </c>
@@ -2121,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>30</v>
       </c>
@@ -2141,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>31</v>
       </c>
@@ -2161,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>32</v>
       </c>
@@ -2181,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>33</v>
       </c>
@@ -2201,7 +2280,1333 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>1</v>
+      </c>
+      <c r="B42" s="20">
+        <v>0</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>SUM(B42:H42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>2</v>
+      </c>
+      <c r="B43" s="20">
+        <v>0</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="20">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I74" si="0">SUM(B43:H43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>3</v>
+      </c>
+      <c r="B44" s="20">
+        <v>0</v>
+      </c>
+      <c r="C44" s="20">
+        <v>0</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0</v>
+      </c>
+      <c r="F44" s="20">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>4</v>
+      </c>
+      <c r="B45" s="20">
+        <v>0</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>5</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0</v>
+      </c>
+      <c r="F46" s="20">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="20">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>6</v>
+      </c>
+      <c r="B47" s="20">
+        <v>0</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>7</v>
+      </c>
+      <c r="B48" s="20">
+        <v>0</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>8</v>
+      </c>
+      <c r="B49" s="20">
+        <v>0</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>9</v>
+      </c>
+      <c r="B50" s="20">
+        <v>0</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>10</v>
+      </c>
+      <c r="B51" s="20">
+        <v>0</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0</v>
+      </c>
+      <c r="H51" s="20">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>11</v>
+      </c>
+      <c r="B52" s="20">
+        <v>0</v>
+      </c>
+      <c r="C52" s="20">
+        <v>0</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="20">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>12</v>
+      </c>
+      <c r="B53" s="20">
+        <v>0</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0</v>
+      </c>
+      <c r="H53" s="20">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
+        <v>13</v>
+      </c>
+      <c r="B54" s="20">
+        <v>0</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0</v>
+      </c>
+      <c r="H54" s="20">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>14</v>
+      </c>
+      <c r="B55" s="20">
+        <v>0</v>
+      </c>
+      <c r="C55" s="20">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="20">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>15</v>
+      </c>
+      <c r="B56" s="20">
+        <v>0</v>
+      </c>
+      <c r="C56" s="20">
+        <v>0</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="20">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>16</v>
+      </c>
+      <c r="B57" s="20">
+        <v>0</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
+        <v>17</v>
+      </c>
+      <c r="B58" s="20">
+        <v>0</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>18</v>
+      </c>
+      <c r="B59" s="20">
+        <v>0</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>19</v>
+      </c>
+      <c r="B60" s="20">
+        <v>0</v>
+      </c>
+      <c r="C60" s="20">
+        <v>0</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+      <c r="E60" s="20">
+        <v>0</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>20</v>
+      </c>
+      <c r="B61" s="20">
+        <v>0</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="20">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
+        <v>21</v>
+      </c>
+      <c r="B62" s="20">
+        <v>0</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>22</v>
+      </c>
+      <c r="B63" s="20">
+        <v>0</v>
+      </c>
+      <c r="C63" s="20">
+        <v>0</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="20">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>23</v>
+      </c>
+      <c r="B64" s="20">
+        <v>0</v>
+      </c>
+      <c r="C64" s="20">
+        <v>0</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="20">
+        <v>0</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0</v>
+      </c>
+      <c r="H64" s="20">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>24</v>
+      </c>
+      <c r="B65" s="20">
+        <v>0</v>
+      </c>
+      <c r="C65" s="20">
+        <v>0</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>25</v>
+      </c>
+      <c r="B66" s="20">
+        <v>0</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
+        <v>0</v>
+      </c>
+      <c r="F66" s="20">
+        <v>0</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="20">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>26</v>
+      </c>
+      <c r="B67" s="20">
+        <v>0</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
+        <v>27</v>
+      </c>
+      <c r="B68" s="20">
+        <v>0</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="20">
+        <v>0</v>
+      </c>
+      <c r="F68" s="20">
+        <v>0</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0</v>
+      </c>
+      <c r="H68" s="20">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
+        <v>28</v>
+      </c>
+      <c r="B69" s="20">
+        <v>0</v>
+      </c>
+      <c r="C69" s="20">
+        <v>0</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0</v>
+      </c>
+      <c r="E69" s="20">
+        <v>0</v>
+      </c>
+      <c r="F69" s="20">
+        <v>0</v>
+      </c>
+      <c r="G69" s="20">
+        <v>0</v>
+      </c>
+      <c r="H69" s="20">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
+        <v>29</v>
+      </c>
+      <c r="B70" s="20">
+        <v>0</v>
+      </c>
+      <c r="C70" s="20">
+        <v>0</v>
+      </c>
+      <c r="D70" s="20">
+        <v>0</v>
+      </c>
+      <c r="E70" s="20">
+        <v>0</v>
+      </c>
+      <c r="F70" s="20">
+        <v>0</v>
+      </c>
+      <c r="G70" s="20">
+        <v>0</v>
+      </c>
+      <c r="H70" s="20">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
+        <v>30</v>
+      </c>
+      <c r="B71" s="20">
+        <v>0</v>
+      </c>
+      <c r="C71" s="20">
+        <v>0</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0</v>
+      </c>
+      <c r="E71" s="20">
+        <v>0</v>
+      </c>
+      <c r="F71" s="20">
+        <v>0</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0</v>
+      </c>
+      <c r="H71" s="20">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
+        <v>31</v>
+      </c>
+      <c r="B72" s="20">
+        <v>0</v>
+      </c>
+      <c r="C72" s="20">
+        <v>0</v>
+      </c>
+      <c r="D72" s="20">
+        <v>0</v>
+      </c>
+      <c r="E72" s="20">
+        <v>0</v>
+      </c>
+      <c r="F72" s="20">
+        <v>0</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="14">
+        <v>32</v>
+      </c>
+      <c r="B73" s="20">
+        <v>0</v>
+      </c>
+      <c r="C73" s="20">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0</v>
+      </c>
+      <c r="E73" s="20">
+        <v>0</v>
+      </c>
+      <c r="F73" s="20">
+        <v>0</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0</v>
+      </c>
+      <c r="H73" s="20">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="14">
+        <v>33</v>
+      </c>
+      <c r="B74" s="20">
+        <v>0</v>
+      </c>
+      <c r="C74" s="20">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0</v>
+      </c>
+      <c r="E74" s="20">
+        <v>0</v>
+      </c>
+      <c r="F74" s="20">
+        <v>0</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0</v>
+      </c>
+      <c r="H74" s="20">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <f>SUM(B42:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:H75" si="1">SUM(C42:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <f>IF(SUMPRODUCT($B$5:$B$37,B42:B74) = 1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:H81" si="2">IF(SUMPRODUCT($B$5:$B$37,C42:C74) = 1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <f>IF(SUMPRODUCT($C$5:$C$37,B$42:B$74) = 1, 3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:H82" si="3">IF(SUMPRODUCT($C$5:$C$37,C$42:C$74) = 1, 3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <f>IF(SUMPRODUCT($D$5:$D$37,B$42:B$74) = 1, 3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:H83" si="4">IF(SUMPRODUCT($D$5:$D$37,C$42:C$74) = 1, 3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <f>IF(SUMPRODUCT($E$5:$E$37,B$42:B$74) = 1, 2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:H84" si="5">IF(SUMPRODUCT($E$5:$E$37,C$42:C$74) = 1, 2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <f>IF(SUMPRODUCT($F$5:$F$37,B$42:B$74) = 1, 2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:H85" si="6">IF(SUMPRODUCT($F$5:$F$37,C$42:C$74) = 1, 2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <f>SUM(B81:B85)</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:H86" si="7">SUM(C81:C85)</f>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <f>SUM(B86:H86)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
